--- a/Linux/linux.xlsx
+++ b/Linux/linux.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E6D1FE-9E22-4C9C-A400-EF863AFA7B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>一些常规的运维命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +92,539 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>94077</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15CAE1E-7FEC-4DF6-8FE0-1073573829C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="200025"/>
+          <a:ext cx="9380952" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75577</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232D911D-2BE0-4225-BB5B-AC966CE4741E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="5981700"/>
+          <a:ext cx="4980952" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>198803</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8376B2BC-D372-42A0-BB69-9A9487858CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="8267700"/>
+          <a:ext cx="9771428" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>46403</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>56624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0054ECE-7DB4-4B04-BC75-4A5AAE84987C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="12315825"/>
+          <a:ext cx="9771428" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>132124</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F78D678-69A4-410F-8FB7-D3E656ACAA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="16706850"/>
+          <a:ext cx="9809524" cy="5457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218594</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FA624D-095B-4E45-8F04-BEAB0940A1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="22536150"/>
+          <a:ext cx="3847619" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>113095</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>113605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E004BFF7-1E63-4D64-A803-04369CB0F03F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="23688675"/>
+          <a:ext cx="9638095" cy="5561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>246393</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC58EB9B-9311-46B7-B7EC-660D7DACA469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="29498925"/>
+          <a:ext cx="10057143" cy="4628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>65739</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>85036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1DAB82-1CE1-4299-BA28-0FF86221EDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="34204275"/>
+          <a:ext cx="7485714" cy="5514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>246533</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>66065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAB4481-C086-465D-846D-A5C00C2AB947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="40071675"/>
+          <a:ext cx="8933333" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>227337</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>37520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E46FFDB-3CF2-4393-AD2A-596CAB441C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="45167550"/>
+          <a:ext cx="10104762" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>151176</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>37957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506A17E4-0095-4B95-8125-5872DAAAC4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="49930050"/>
+          <a:ext cx="9790476" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="I286" sqref="I286"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>